--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD10_Workflows_150514.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD10_Workflows_150514.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21315" windowHeight="10035" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21315" windowHeight="10035" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="W6 - Legal Requirements" sheetId="6" r:id="rId7"/>
     <sheet name="W7 - Special Prices" sheetId="7" r:id="rId8"/>
     <sheet name="W8 - Technical Support" sheetId="8" r:id="rId9"/>
-    <sheet name="P-W9 - Delivery Times" sheetId="4" r:id="rId10"/>
+    <sheet name="W9 - Delivery Times" sheetId="4" r:id="rId10"/>
     <sheet name="W10 - Financial Credit" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -4262,7 +4262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD10_Workflows_150514.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD10_Workflows_150514.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21315" windowHeight="10035" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21315" windowHeight="10035" tabRatio="916" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -433,9 +433,6 @@
     <t>Commercial activity motives</t>
   </si>
   <si>
-    <t>multivalor</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>sin el valor unknown - por defecto none</t>
-  </si>
-  <si>
     <t>listado</t>
   </si>
   <si>
@@ -566,13 +560,19 @@
   </si>
   <si>
     <t>Código de tres digitos extraido de la BD11 Staff. Al jefe del KAM. (RM y/o JLP)</t>
+  </si>
+  <si>
+    <t>Multivalor</t>
+  </si>
+  <si>
+    <t>Sin la posibilidad de seleccionar el valor unknown. Valor predeterminado es none.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,8 +623,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,6 +686,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -898,21 +956,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -934,10 +983,124 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1556,7 +1719,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>36</v>
@@ -1753,7 +1916,7 @@
         <v>35</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>36</v>
@@ -1867,7 +2030,7 @@
         <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>36</v>
@@ -1968,7 +2131,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1980,7 +2143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1996,7 +2159,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2081,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2114,10 +2277,10 @@
         <v>41</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>174</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>96</v>
@@ -2183,7 +2346,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2316,45 +2479,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.7109375" style="27" customWidth="1"/>
     <col min="6" max="6" width="52.140625" style="27" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="93"/>
+      <c r="B1" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="96" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
@@ -2362,20 +2526,20 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="68" t="s">
         <v>117</v>
       </c>
       <c r="F3" s="1"/>
@@ -2384,19 +2548,19 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="72" t="s">
         <v>118</v>
       </c>
       <c r="F4" s="1"/>
@@ -2405,19 +2569,19 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="72" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="1"/>
@@ -2425,38 +2589,38 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="53" t="s">
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="53" t="s">
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>134</v>
+      <c r="E7" s="72" t="s">
+        <v>177</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2464,52 +2628,52 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="47"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="47"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>175</v>
+      <c r="E10" s="68" t="s">
+        <v>178</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2517,51 +2681,52 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="52"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="96" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="1"/>
@@ -2569,20 +2734,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="29" t="s">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="82" t="s">
         <v>117</v>
       </c>
       <c r="F15" s="1"/>
@@ -2591,19 +2756,19 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="73" t="s">
         <v>118</v>
       </c>
       <c r="F16" s="1"/>
@@ -2612,19 +2777,19 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="73" t="s">
         <v>118</v>
       </c>
       <c r="F17" s="1"/>
@@ -2633,17 +2798,18 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="25" t="s">
+      <c r="A18" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="47" t="s">
-        <v>137</v>
+      <c r="D18" s="81"/>
+      <c r="E18" s="73" t="s">
+        <v>136</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2651,17 +2817,17 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="98"/>
+      <c r="D19" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="47"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2677,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="A1:E21"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="A3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2831,7 +2997,7 @@
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2839,11 +3005,11 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="49"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
-      <c r="E9" s="52"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2861,7 +3027,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2932,19 +3098,19 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="72" t="s">
         <v>118</v>
       </c>
       <c r="F15" s="1"/>
@@ -2953,37 +3119,37 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="A16" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="47"/>
+      <c r="D16" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="72"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="59" t="s">
-        <v>139</v>
+      <c r="D17" s="71"/>
+      <c r="E17" s="56" t="s">
+        <v>138</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2991,18 +3157,18 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="47" t="s">
-        <v>144</v>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72" t="s">
+        <v>143</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3010,20 +3176,20 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="72" t="s">
         <v>145</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>146</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3041,7 +3207,7 @@
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3067,17 +3233,17 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="55" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="58" t="s">
-        <v>149</v>
-      </c>
-    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="58" t="s">
-        <v>147</v>
+      <c r="B25" s="55" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3090,7 +3256,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E18" sqref="A1:E18"/>
+      <selection activeCell="E10" sqref="A3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3188,7 +3354,7 @@
         <v>126</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3241,7 +3407,7 @@
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3337,19 +3503,19 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="72" t="s">
         <v>118</v>
       </c>
       <c r="F15" s="1"/>
@@ -3358,20 +3524,20 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="47" t="s">
-        <v>153</v>
+      <c r="E16" s="72" t="s">
+        <v>152</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3379,45 +3545,45 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="32"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3426,10 +3592,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="A3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,7 +3693,7 @@
         <v>126</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3683,45 +3849,59 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="88"/>
+    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3732,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="A3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3747,7 +3927,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3859,57 +4039,57 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="49"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="61"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
+      <c r="B14" s="54"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="45"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="90"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="46"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="68"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="47"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="47"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="60"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -3931,7 +4111,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="E10" sqref="A3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,7 +4208,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>118</v>
@@ -4187,19 +4367,19 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="72" t="s">
         <v>118</v>
       </c>
       <c r="F15" s="1"/>
@@ -4208,44 +4388,48 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="33"/>
+      <c r="E16" s="82"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="82"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="73"/>
+      <c r="B18" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="82"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="32"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="88"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="27" t="s">
@@ -4262,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="A3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4361,10 +4545,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4397,16 +4581,16 @@
         <v>41</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>159</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>160</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4418,14 +4602,14 @@
         <v>41</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4437,16 +4621,16 @@
         <v>41</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>161</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>162</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4458,7 +4642,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>116</v>
@@ -4553,16 +4737,16 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="83" t="s">
         <v>156</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="62" t="s">
-        <v>157</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -4570,17 +4754,17 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="68" t="s">
         <v>112</v>
       </c>
       <c r="F16" s="1"/>
@@ -4588,16 +4772,16 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="29" t="s">
+    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="42" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="84" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="1"/>
@@ -4606,22 +4790,22 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="50"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4762,14 +4946,14 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="A3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="62.7109375" customWidth="1"/>
   </cols>
@@ -4859,10 +5043,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4896,10 +5080,10 @@
         <v>119</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E7" s="30"/>
     </row>
@@ -5007,19 +5191,19 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="72" t="s">
         <v>118</v>
       </c>
       <c r="F15" s="1"/>
@@ -5028,19 +5212,19 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="72" t="s">
         <v>118</v>
       </c>
       <c r="F16" s="1"/>
@@ -5049,17 +5233,17 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="68" t="s">
         <v>109</v>
       </c>
       <c r="F17" s="1"/>
@@ -5068,30 +5252,30 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="68" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="82"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -5120,5 +5304,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD10_Workflows_150514.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD10_Workflows_150514.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -445,12 +445,6 @@
     <t>Feasible</t>
   </si>
   <si>
-    <t>por unidad</t>
-  </si>
-  <si>
-    <t>puede ser una modificación del product description original</t>
-  </si>
-  <si>
     <t>Request - Product modification</t>
   </si>
   <si>
@@ -460,15 +454,9 @@
     <t>Se puede especificar aquí para cuándo se necesita el producto</t>
   </si>
   <si>
-    <t>tiempo de análisis y diseño</t>
-  </si>
-  <si>
     <t>Delivery time criticity</t>
   </si>
   <si>
-    <t xml:space="preserve">H/M/L - </t>
-  </si>
-  <si>
     <t>productos sin código 25 y que sí están catalogados</t>
   </si>
   <si>
@@ -566,13 +554,31 @@
   </si>
   <si>
     <t>Sin la posibilidad de seleccionar el valor unknown. Valor predeterminado es none.</t>
+  </si>
+  <si>
+    <t>El sistema genera este campo automáticamente al introducir el workflow en el sistema. No se puede sobreescribir la fecha (para evitar posibles engaños).</t>
+  </si>
+  <si>
+    <t>Puede ser una modificación del product description original</t>
+  </si>
+  <si>
+    <t>Tres valores: high, medium, low. No permitir unknown y none.</t>
+  </si>
+  <si>
+    <t>Tiempo de análisis y diseño</t>
+  </si>
+  <si>
+    <t>Coste estimado por unidad</t>
+  </si>
+  <si>
+    <t>El sistema genera este campo automáticamente al introducir en sistema el workflow. No se puede sobreescribir la fecha (para evitar posibles engaños).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,12 +625,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -654,26 +654,23 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="13"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="13"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -811,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,9 +956,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -971,136 +965,145 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1719,7 +1722,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>36</v>
@@ -1916,7 +1919,7 @@
         <v>35</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>36</v>
@@ -2030,7 +2033,7 @@
         <v>35</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>36</v>
@@ -2131,7 +2134,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2162,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2244,7 +2247,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2277,10 +2280,10 @@
         <v>41</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>96</v>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2480,358 +2483,358 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:E19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.7109375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="27"/>
+    <col min="1" max="1" width="4.5703125" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="76" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" style="76" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" style="76" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="94" t="s">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="97"/>
+      <c r="B1" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="E3" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="70" t="s">
+      <c r="A5" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
     </row>
     <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="79" t="s">
+      <c r="A7" s="89"/>
+      <c r="B7" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="E7" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="E10" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="94" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="97"/>
+      <c r="B13" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+    </row>
+    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="98" t="s">
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="98" t="s">
+      <c r="E16" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="73" t="s">
+      <c r="D17" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="81" t="s">
+      <c r="A18" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="73" t="s">
+      <c r="D18" s="67"/>
+      <c r="E18" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="97" t="s">
+      <c r="A19" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98" t="s">
+      <c r="C19" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2841,47 +2844,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="A3:E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.7109375" style="27" customWidth="1"/>
+    <col min="1" max="1" width="5" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.140625" style="27" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="97"/>
+      <c r="B1" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="100" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
@@ -2889,20 +2893,20 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="63" t="s">
         <v>117</v>
       </c>
       <c r="G3" s="1"/>
@@ -2910,19 +2914,19 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="63" t="s">
         <v>118</v>
       </c>
       <c r="F4" s="1"/>
@@ -2931,19 +2935,19 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="63" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="1"/>
@@ -2952,52 +2956,52 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="66">
         <v>123456</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="47"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="29" t="s">
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="47" t="s">
-        <v>142</v>
+      <c r="D8" s="66"/>
+      <c r="E8" s="63" t="s">
+        <v>140</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3005,70 +3009,72 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="51"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="100" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="29" t="s">
+    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="63" t="s">
         <v>117</v>
       </c>
       <c r="F13" s="1"/>
@@ -3077,19 +3083,19 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="63" t="s">
         <v>118</v>
       </c>
       <c r="F14" s="1"/>
@@ -3098,19 +3104,19 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="70" t="s">
+      <c r="A15" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="63" t="s">
         <v>118</v>
       </c>
       <c r="F15" s="1"/>
@@ -3119,37 +3125,37 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="82"/>
+      <c r="E16" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="72"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="56" t="s">
-        <v>138</v>
+      <c r="D17" s="66"/>
+      <c r="E17" s="95" t="s">
+        <v>179</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3157,18 +3163,18 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="70" t="s">
+      <c r="A18" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72" t="s">
-        <v>143</v>
+      <c r="D18" s="66"/>
+      <c r="E18" s="63" t="s">
+        <v>178</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3176,38 +3182,38 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="71" t="s">
+      <c r="A19" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="72" t="s">
-        <v>145</v>
+      <c r="E19" s="63" t="s">
+        <v>177</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="47" t="s">
-        <v>139</v>
+      <c r="D20" s="66"/>
+      <c r="E20" s="63" t="s">
+        <v>176</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3215,39 +3221,43 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="47"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="55" t="s">
-        <v>146</v>
-      </c>
+      <c r="B23" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="93" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3256,7 +3266,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E10" sqref="A3:E10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3333,7 +3343,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3354,7 +3364,7 @@
         <v>126</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3407,7 +3417,7 @@
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3503,19 +3513,19 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="70" t="s">
+      <c r="A15" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="67" t="s">
         <v>118</v>
       </c>
       <c r="F15" s="1"/>
@@ -3524,20 +3534,20 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="72" t="s">
-        <v>152</v>
+      <c r="E16" s="67" t="s">
+        <v>148</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3545,45 +3555,45 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="68"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="68"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="88"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3595,7 +3605,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="A3:E10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,7 +3703,7 @@
         <v>126</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3849,59 +3859,59 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="70" t="s">
+      <c r="A15" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="68"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="68"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="88"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="83"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="88"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3927,7 +3937,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4043,53 +4053,53 @@
       <c r="B13" s="49"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="58"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="54"/>
+      <c r="B14" s="53"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="90"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="68"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="57"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -4208,7 +4218,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>118</v>
@@ -4367,19 +4377,19 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="70" t="s">
+      <c r="A15" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="67" t="s">
         <v>118</v>
       </c>
       <c r="F15" s="1"/>
@@ -4388,48 +4398,48 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="82"/>
+      <c r="E16" s="77"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="82"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="77"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="70" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="82"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="77"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="88"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="83"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="27" t="s">
@@ -4545,10 +4555,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4581,16 +4591,16 @@
         <v>41</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4602,14 +4612,14 @@
         <v>41</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4621,16 +4631,16 @@
         <v>41</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>160</v>
+      <c r="D9" s="56" t="s">
+        <v>156</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4642,7 +4652,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>116</v>
@@ -4737,16 +4747,16 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="71" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="83" t="s">
-        <v>156</v>
+      <c r="D15" s="66"/>
+      <c r="E15" s="78" t="s">
+        <v>152</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -4754,17 +4764,17 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="63" t="s">
         <v>112</v>
       </c>
       <c r="F16" s="1"/>
@@ -4773,15 +4783,15 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="84" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="79" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="1"/>
@@ -4790,22 +4800,22 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="86"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="87"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5043,10 +5053,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -5080,10 +5090,10 @@
         <v>119</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E7" s="30"/>
     </row>
@@ -5191,19 +5201,19 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="70" t="s">
+      <c r="A15" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="67" t="s">
         <v>118</v>
       </c>
       <c r="F15" s="1"/>
@@ -5212,19 +5222,19 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="67" t="s">
         <v>118</v>
       </c>
       <c r="F16" s="1"/>
@@ -5233,17 +5243,17 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="63" t="s">
         <v>109</v>
       </c>
       <c r="F17" s="1"/>
@@ -5252,30 +5262,30 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="68" t="s">
+      <c r="D18" s="68"/>
+      <c r="E18" s="63" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="70" t="s">
+      <c r="A19" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="82"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="77"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
